--- a/reduced-Kmeans-BinarizedTimeSeries.xlsx
+++ b/reduced-Kmeans-BinarizedTimeSeries.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/GitHub/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A5463E-2635-BD46-87A8-EA9488CF3C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF26B92-63B7-D24D-B579-71FD775B7351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39120" yWindow="-1020" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19500" yWindow="460" windowWidth="25320" windowHeight="20900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Activity graph" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>thresholds</t>
   </si>
@@ -119,15 +120,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,18 +154,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -923,4 +966,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C07262-0078-FE40-AE2E-F8D2FDAC7381}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F23" sqref="B1:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2">
+        <v>54575.387473499999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3">
+        <v>3157.682034706349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4">
+        <v>54593.931893125002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4">
+        <v>36979.120655625004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4">
+        <v>7335.8581870416674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4">
+        <v>3128.6945709374995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4">
+        <v>18763.767497937501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4">
+        <v>10965.047393083332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4">
+        <v>8343.7170496909093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4">
+        <v>17674.400910383334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
+        <v>6168.0287443928573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <v>2506.7297016666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4">
+        <v>7852.1272166666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4">
+        <v>4580.1649375000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4">
+        <v>128.43403372498335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4">
+        <v>15515.533116016666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4">
+        <v>29824.248764374999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4">
+        <v>5279.2551706507938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4">
+        <v>2161.9610048253971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4">
+        <v>23081.337959375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4">
+        <v>5494.2070256410261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4">
+        <v>6465.4881833333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>